--- a/attentional_competition_task/chooseBlockD.xlsx
+++ b/attentional_competition_task/chooseBlockD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gca_avoidance\attentional_competition_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A274B-38FD-45E4-B274-93DF77860998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979C957-F36A-4E98-861B-88FE07212929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="3310" yWindow="10030" windowWidth="29350" windowHeight="10920" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attentional_competition_task/chooseBlockD.xlsx
+++ b/attentional_competition_task/chooseBlockD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gca_avoidance\attentional_competition_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979C957-F36A-4E98-861B-88FE07212929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D5C30-286D-4A87-BA85-CB04DEB77393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3310" yWindow="10030" windowWidth="29350" windowHeight="10920" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="8440" yWindow="2550" windowWidth="29350" windowHeight="10920" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>posFile</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>stimuli/Nonsocial3.png</t>
+  </si>
+  <si>
+    <t>posFileTest</t>
+  </si>
+  <si>
+    <t>posFileTestNew</t>
+  </si>
+  <si>
+    <t>stimFileNew</t>
+  </si>
+  <si>
+    <t>positions_test.xlsx</t>
+  </si>
+  <si>
+    <t>positions_test_new.xlsx</t>
+  </si>
+  <si>
+    <t>stimuli_new.xlsx</t>
   </si>
 </sst>
 </file>
@@ -447,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D442166-CB98-4944-BF44-DA0360414B46}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,67 +480,85 @@
     <col min="5" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
     </row>
